--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/Downloads/working_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -52,6 +52,131 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-10-10-01-48.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. gip推位不准，去程机器上人行道</t>
+    <rPh sb="8" eb="9">
+      <t>bu zhun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qu cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ren xin d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ui取货不停触发开箱／关厢动作，并且无法给返城goal</t>
+    <rPh sb="5" eb="6">
+      <t>qu huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu ting</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guan xiang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bing q</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gei chu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 机器不走直线，两条马路中间线有明显横向位移</t>
+    <rPh sb="3" eb="4">
+      <t>ji q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu zou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang tiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ma l</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhong jian xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ming xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>heng xiang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wei yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  订单和车在出发时配合流程有问题</t>
+    <rPh sb="4" eb="5">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pei he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liu cheng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,13 +218,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,16 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -402,9 +583,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>42926</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -178,6 +178,86 @@
     <rPh sb="16" eb="17">
       <t>you wen ti</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 开箱秒关</t>
+    <rPh sb="3" eb="4">
+      <t>kai xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 回程箱不给goal</t>
+    <rPh sb="3" eb="4">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 除了吴迪邱伟徐志浩潮哥的程序，其他程序均不能重启</t>
+    <rPh sb="3" eb="4">
+      <t>chu le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xu zhi h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chao ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cheng x</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jun</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>chong qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. pc开关启动不灵敏</t>
+    <rPh sb="5" eb="6">
+      <t>kai guan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi dong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu ling ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-10-18-50-50.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -270,17 +350,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,6 +763,41 @@
       </c>
       <c r="C5" s="4"/>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -60,25 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. gip推位不准，去程机器上人行道</t>
-    <rPh sb="8" eb="9">
-      <t>bu zhun</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qu cheng</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji qi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>shang</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ren xin d</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. ui取货不停触发开箱／关厢动作，并且无法给返城goal</t>
     <rPh sb="5" eb="6">
       <t>qu huo</t>
@@ -150,37 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.  订单和车在出发时配合流程有问题</t>
-    <rPh sb="4" eb="5">
-      <t>ding dan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ce</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chu fa</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shi h</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>pei he</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>liu cheng</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>you wen ti</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 开箱秒关</t>
     <rPh sb="3" eb="4">
       <t>kai xiang</t>
@@ -258,6 +208,270 @@
   </si>
   <si>
     <t>2017-07-10-18-50-50.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/07/10/day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/07/10/night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/07/11/day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-11-16-50-45.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-11-15-19-38.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. gps定位有问题，换基站（121.42.176.81）之后改善</t>
+    <rPh sb="6" eb="7">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you wei ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji zhan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>gai shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决进度</t>
+    <rPh sb="0" eb="1">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. gps推位不准，去程机器上人行道</t>
+    <rPh sb="8" eb="9">
+      <t>bu zhun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qu cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji qi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ren xin d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <rPh sb="0" eb="1">
+      <t>dai jie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. gps推位不准，去程机器上马路中间线</t>
+    <rPh sb="16" eb="17">
+      <t>ma lu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhong jian xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以解决</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  订单和车在出发时配合流程，需要人工同步</t>
+    <rPh sb="17" eb="18">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ren gong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tong tbu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 开箱关箱过快，来不及取货（箱上放任何物体箱子弹不出，然后锁上）</t>
+    <rPh sb="3" eb="4">
+      <t>kai xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang zi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guo kuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lai bu ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qu huo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ren he</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>wu ti</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xiang zi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tan chu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ran hou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.订单和车在出发时配合流程，需要人工同步</t>
+    <rPh sb="15" eb="16">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren gong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong tbu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-11-15-02-47.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-11-10-22-04.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 雷达安装位置低，遇到车辆只能检测轮子下半部分，导致避让jd快递车有风险</t>
+    <rPh sb="3" eb="4">
+      <t>lei da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu dao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ce liang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhi neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jian ce</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lun zi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bi ra</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kuai di c</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>you</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>feng xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次测试无明显错误</t>
+    <rPh sb="0" eb="1">
+      <t>zui hou yi ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ming x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cuo w</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,12 +496,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -416,20 +648,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,20 +948,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,73 +972,160 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>42926</v>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="12" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -472,6 +472,146 @@
     <rPh sb="9" eb="10">
       <t>cuo w</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/07/12/day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人车工作流程1.jpeg</t>
+  </si>
+  <si>
+    <t>1. 玉玺修改程序，导致mapsever地图加载出错</t>
+    <rPh sb="3" eb="4">
+      <t>yu xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>di tu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jia zai</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 配送流程繁琐，且效率低下</t>
+    <rPh sb="3" eb="4">
+      <t>pei song</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu ch</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fan suo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiao lü</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 本地运行部分3个地点需要启动3个程序，需要整合成1个带有多选项的界面</t>
+    <rPh sb="3" eb="4">
+      <t>ben di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu f</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di dian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qi dong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zheng he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dai you</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xuan xian</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiang mu</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jie mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 测试正常</t>
+  </si>
+  <si>
+    <t>5. 测试正常</t>
+    <rPh sb="3" eb="4">
+      <t>che shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-10-37-15.bag.active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-11-09-36.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-11-39-35.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1267,61 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -612,6 +612,90 @@
   </si>
   <si>
     <t>2017-07-12-11-39-35.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 去程costmap更新留障碍物，车磨蹭一会之后，继续正常运行</t>
+    <rPh sb="3" eb="4">
+      <t>qu cheng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gen xin</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>liu xia</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhang ai wu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>mo cheng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi hui</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ji xu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yun x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 回程路径规划有两个极点，导致车转弯180时候，运行磨蹭不转弯</t>
+    <rPh sb="3" eb="4">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji dian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhuan wan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi h</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>mo cheng</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu zhuan w</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,6 +1397,9 @@
       <c r="C21" t="s">
         <v>37</v>
       </c>
+      <c r="D21" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
@@ -1320,6 +1407,28 @@
       </c>
       <c r="C22" t="s">
         <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -615,10 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-07-12-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 去程costmap更新留障碍物，车磨蹭一会之后，继续正常运行</t>
     <rPh sb="3" eb="4">
       <t>qu cheng</t>
@@ -696,6 +692,230 @@
     <rPh sb="30" eb="31">
       <t>bu zhuan w</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 测试正常</t>
+    <rPh sb="3" eb="4">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 有人从侧面介入导致碰撞</t>
+    <rPh sb="3" eb="4">
+      <t>you ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ce mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>peng zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 订单流程出错</t>
+    <rPh sb="3" eb="4">
+      <t>ding dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-09-54-44.bag</t>
+  </si>
+  <si>
+    <t>2017-07-13-09-54-44.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方全责，等待下一步讨论，是否需要下一步动作</t>
+    <rPh sb="0" eb="1">
+      <t>dui fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan zhe</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xia yi bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tao lun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi f</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xia yi bu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dong zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 正常</t>
+    <rPh sb="3" eb="4">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 教二，测试单</t>
+    <rPh sb="11" eb="12">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>er</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 教二，测试单</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-10-24-39.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3 to 教二，测试单</t>
+  </si>
+  <si>
+    <t>1.  熊孩子围堵，成功突围</t>
+    <rPh sb="4" eb="5">
+      <t>xiong hai z</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cheng gong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tu we</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 回程路径规划有两个极点，导致车转弯180时候，运行磨蹭不转弯</t>
+    <rPh sb="3" eb="4">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji dian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dao zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhuan wan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi h</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>mo cheng</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bu zhuan w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无法开工控机，可能是温度过高</t>
+    <rPh sb="3" eb="4">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong kong ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke neng shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wen du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guo g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-11-03-38.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-16-08-19.bag</t>
+  </si>
+  <si>
+    <t>2017-07-12-16-08-19.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-18-27-02.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +940,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +965,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -872,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -895,6 +1121,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1172,267 +1406,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="59.1640625" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="1" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" customWidth="1"/>
+    <col min="4" max="4" width="59.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="12" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="19"/>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="12" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>42929</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -916,6 +916,163 @@
   </si>
   <si>
     <t>2017-07-12-18-27-02.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 4 to 藏书馆，测试单</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 输入密码错误，去了教二。</t>
+    <rPh sb="3" eb="4">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>le</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 5 to藏书馆，测试单</t>
+    <rPh sb="10" eb="11">
+      <t>chang shu guan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ce shi dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-17-02-22.bag</t>
+  </si>
+  <si>
+    <t>1. 到达start点之后不给去藏书馆的goal</t>
+    <rPh sb="3" eb="4">
+      <t>dao da</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qu chang shu g</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-17-39-43.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否简化出发流程</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 6 to 藏书馆，测试单</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu g</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ce s</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到教2之后停滞，不给去藏书楼的goal</t>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia o</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ting zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chang shu lou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-18-10-14.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 回程到世纪馆正门前，定位出错</t>
+    <rPh sb="3" eb="4">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng men</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chu cuo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1406,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,8 +1840,8 @@
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>19</v>
+      <c r="E24" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,13 +1928,69 @@
       <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>19</v>
+      <c r="E31" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>56</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -590,9 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. 测试正常</t>
-  </si>
-  <si>
     <t>5. 测试正常</t>
     <rPh sb="3" eb="4">
       <t>che shi</t>
@@ -1073,6 +1070,10 @@
     <rPh sb="15" eb="16">
       <t>chu cuo</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 测试正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1563,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1775,7 +1776,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>21</v>
@@ -1802,10 +1803,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>21</v>
@@ -1813,10 +1814,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -1824,10 +1825,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>19</v>
@@ -1835,10 +1836,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>21</v>
@@ -1846,10 +1847,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>21</v>
@@ -1867,24 +1868,24 @@
         <v>42929</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>21</v>
@@ -1892,13 +1893,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>21</v>
@@ -1906,16 +1907,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>21</v>
@@ -1923,10 +1924,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>21</v>
@@ -1934,64 +1935,71 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -227,35 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-07-11-15-19-38.bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. gps定位有问题，换基站（121.42.176.81）之后改善</t>
-    <rPh sb="6" eb="7">
-      <t>ding wei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>you wei ti</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>huan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji zhan</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhi hou</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>gai shan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解决进度</t>
     <rPh sb="0" eb="1">
       <t>jie jue</t>
@@ -292,16 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. gps推位不准，去程机器上马路中间线</t>
-    <rPh sb="16" eb="17">
-      <t>ma lu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>zhong jian xian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以解决</t>
     <rPh sb="0" eb="1">
       <t>yi</t>
@@ -906,9 +867,6 @@
   </si>
   <si>
     <t>2017-07-12-16-08-19.bag</t>
-  </si>
-  <si>
-    <t>2017-07-12-16-08-19.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1074,6 +1032,313 @@
   </si>
   <si>
     <t>4. 测试正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-12-16-08-19.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-13-11-03-38.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07/14/17</t>
+  </si>
+  <si>
+    <r>
+      <t>上午跟清华团队测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>没有跑真单</t>
+    </r>
+  </si>
+  <si>
+    <t>2017-07-14-16-12-02.bag</t>
+  </si>
+  <si>
+    <r>
+      <t>下午：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">round1 to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>教二，测试单</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>过桩还是会磨，路径跳变的问题依然存在</t>
+    </r>
+  </si>
+  <si>
+    <t>2017-07-14-16-48-02.bag</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">round 2 to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>教二，测试单</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>去跟回都遇到临时车辆把道堵死，只能遥控通过</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. amcl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>稍作修改，整个过程定位正常</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <rPh sb="0" eb="1">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改通信协议</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加respawn</t>
+    <rPh sb="0" eb="1">
+      <t>tian jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加延时</t>
+    <rPh sb="0" eb="1">
+      <t>zheng jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改y向速度</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换锁</t>
+    <rPh sb="0" eb="1">
+      <t>huan suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加操作时间</t>
+    <rPh sb="2" eb="3">
+      <t>chao zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换基站</t>
+    <rPh sb="0" eb="1">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换基站</t>
+    <rPh sb="0" eb="1">
+      <t>huan ji z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. gps推位不准，去程机器上马路中间线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. gps定位有问题，换基站（121.42.176.81）之后改善 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-11-15-19-38.bag </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <rPh sb="0" eb="1">
+      <t>yi j</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改map server</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试</t>
+  </si>
+  <si>
+    <t>待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用管</t>
+    <rPh sb="0" eb="1">
+      <t>bu yong guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管</t>
+    <rPh sb="0" eb="1">
+      <t>bu guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amcl域值缩小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amcl域值缩小，修改激光图添加特征</t>
+    <rPh sb="9" eb="10">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji guang tu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>te z n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车已经有自动调整距离的动作</t>
+    <rPh sb="0" eb="1">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi jin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao z</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dong zuo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,7 +1346,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm/dd/yy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1096,6 +1364,32 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1256,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1287,6 +1581,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1564,26 +1864,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="28.83203125" customWidth="1"/>
     <col min="3" max="3" width="69.33203125" customWidth="1"/>
-    <col min="4" max="4" width="59.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1592,25 +1893,31 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
@@ -1618,10 +1925,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
@@ -1629,21 +1939,21 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="19"/>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -1655,10 +1965,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
@@ -1666,10 +1979,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8" t="s">
@@ -1677,329 +1993,410 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
         <v>42929</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E32" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E34" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1041,9 +1041,6 @@
   <si>
     <t>2017-07-13-11-03-38.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07/14/17</t>
   </si>
   <si>
     <r>
@@ -1340,6 +1337,125 @@
       <t>dong zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chan shu lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 回程路径被挡住之后，会出现两个极点的路径</t>
+    <rPh sb="3" eb="4">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dang z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>liang ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji dian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lu j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-20-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加模式9</t>
+    <rPh sb="0" eb="1">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上午跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>部门调试远程遥控，没有跑单。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>出发航向错误，导致无法继续自主导航，选择遥控至教二。</t>
+    </r>
+  </si>
+  <si>
+    <t>04-rslidar-renda.bag</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>下午测试自主教二往返。</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="1"/>
+      </rPr>
+      <t>由于遥控至教二停车位置不精确，规划了逆行回京东派的路线。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1392,7 +1508,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,6 +1537,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -1550,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1587,6 +1715,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1864,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,7 +2031,7 @@
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1911,10 +2046,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1928,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1968,7 +2103,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1982,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1996,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2016,6 +2151,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2031,12 +2167,12 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -2045,21 +2181,21 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2095,6 +2231,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2110,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2176,7 +2313,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2196,6 +2333,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="18">
@@ -2214,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2270,7 +2408,7 @@
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2295,7 +2433,7 @@
         <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2337,7 +2475,7 @@
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2346,56 +2484,125 @@
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="22">
+        <v>42930</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="C38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
-        <v>98</v>
+      <c r="F38" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="D40" s="24"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="26" t="s">
         <v>18</v>
+      </c>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>42934</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
+        <v>42936</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1383,10 +1383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-07-20-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加模式9</t>
     <rPh sb="0" eb="1">
       <t>tian jia</t>
@@ -1456,6 +1452,340 @@
       </rPr>
       <t>由于遥控至教二停车位置不精确，规划了逆行回京东派的路线。</t>
     </r>
+  </si>
+  <si>
+    <t>2017-07-20-10-27-47.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 gis远程控制</t>
+    <rPh sb="11" eb="12">
+      <t>yuan c</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3 gis远程控制</t>
+    <rPh sb="11" eb="12">
+      <t>yuan cheng</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. basenode 发负速度，左转</t>
+    <rPh sb="12" eb="13">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>su du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 路径判断状态5，6，有时候会状态出错</t>
+    <rPh sb="3" eb="4">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pan d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you shi h</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改了local和golbal的遍历顺序，添加了参数重置</t>
+    <rPh sb="0" eb="1">
+      <t>gen gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>d</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sun xu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>le</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 藏书馆</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到start之后不给goal</t>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 0.39的最大转角跑起来有问题</t>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhuan jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qi lai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <rPh sb="3" eb="4">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suan fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da jiao du</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qian ban duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ping hua</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou ban duan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suan f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>que xian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>can sheng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-12-00-37.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-12-26-25.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. basenode 发负速度，左转</t>
+    <rPh sb="12" eb="13">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>su du</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zuo zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 藏书馆</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-14-23-10.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是，中途程序重启，再次输入藏书楼，到达start之后不给goal</t>
+    <rPh sb="0" eb="1">
+      <t>ke neng shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chong qi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>chang shu lou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dao da</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-15-16-18.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 4 to 藏书楼</t>
+    <rPh sb="12" eb="13">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 世纪馆定位出错</t>
+  </si>
+  <si>
+    <t>2. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-15-35-12.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未考虑转角是145 -145的情况</t>
+  </si>
+  <si>
+    <t>未考虑转角是145 -145的情况</t>
+    <rPh sb="0" eb="1">
+      <t>wei kao l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuan jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>qing kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 5 to 藏书馆</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-21-18-00-16.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1678,7 +2008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1722,6 +2052,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1999,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,32 +2882,32 @@
         <v>42934</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="D43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -2599,10 +2930,170 @@
         <v>100</v>
       </c>
       <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
         <v>101</v>
       </c>
-      <c r="F45" t="s">
-        <v>102</v>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="33">
+        <v>42937</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1785,6 +1785,99 @@
   </si>
   <si>
     <t>2017-07-21-18-00-16.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.到达start点不给goal</t>
+    <rPh sb="2" eb="3">
+      <t>dao d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.到达start点不给goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 重启直接给start点</t>
+    <rPh sb="3" eb="4">
+      <t>chong qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-25-16-08-44.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-25-16-59-30.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-25-17-17-09.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.更换硬盘，到达start点不给goal</t>
+    <rPh sb="2" eb="3">
+      <t>gen huan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin pan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dao da</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 4 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 教二</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-25-18-19-31.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2330,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3096,6 +3189,89 @@
         <v>18</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="33">
+        <v>42941</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1878,6 +1878,52 @@
   </si>
   <si>
     <t>待解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 5 to 教二</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到达start点不给goal</t>
+    <rPh sb="3" eb="4">
+      <t>dao da</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 6 to 教二</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 切换成老版rover_ui，问题解决</t>
+    <rPh sb="3" eb="4">
+      <t>qie huan c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jie jue</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2423,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3272,6 +3318,28 @@
         <v>105</v>
       </c>
     </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1923,6 +1923,342 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>jie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 教二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gps没有信号</t>
+    <rPh sb="3" eb="4">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-08-47-34.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-09-30-18.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rover_ui开箱延迟3-4秒，其他运行正常</t>
+    <rPh sb="8" eb="9">
+      <t>kai xiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan chi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3 to 教二</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过桩擦边</t>
+    <rPh sb="2" eb="3">
+      <t>cha bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 4 to 教二</t>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换新版rover_ui，到start点不给goal，重启除rover_ui之外的全部程序之后，不经操作反复给goal</t>
+    <rPh sb="0" eb="1">
+      <t>gen huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin ban</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>chong qi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhi wai</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>d</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>bu jin guo</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>chao zuo</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>fan fu</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-13-32-50.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉猛修改线程顺序</t>
+    <rPh sb="0" eb="1">
+      <t>yu meng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian cheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sun xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到start点不给goal，玉猛修改线程顺序问题依然存在</t>
+    <rPh sb="0" eb="1">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi ran</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>chun z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-19-18-12.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
+    <rPh sb="0" eb="1">
+      <t>chang shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ming ning</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>guo c</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>guo da</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>you xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-19-37-44.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 7 to 藏书馆</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到start点不给goal，玉猛修改线程顺序问题依然存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细化z轴加速度</t>
+    <rPh sb="0" eb="1">
+      <t>xi hua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia shu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 通过调节z加速度精度，解决超调问题，但是走起来有点不好看</t>
+    <rPh sb="3" eb="4">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia shu du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jing du</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qi lai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you dian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu hao kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-27-19-58-53.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械原因</t>
+    <rPh sb="0" eb="1">
+      <t>ji xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换硬盘</t>
+    <rPh sb="0" eb="1">
+      <t>gen huan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yin p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roscore 失联</t>
+  </si>
+  <si>
+    <t>roscore 失联</t>
+    <rPh sb="8" eb="9">
+      <t>shi lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为是远程控制抢占，basenode，全局变量load**，值未复0</t>
+    <rPh sb="0" eb="1">
+      <t>ren wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yuan cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>quan ju</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bian l</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2469,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2546,6 +2882,9 @@
       <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
@@ -2611,8 +2950,11 @@
         <v>9</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2735,8 +3077,8 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>17</v>
+      <c r="E20" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2768,8 +3110,8 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>17</v>
+      <c r="E23" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2916,8 +3258,11 @@
       <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>17</v>
+      <c r="E34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2930,8 +3275,11 @@
       <c r="D35" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>17</v>
+      <c r="E35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3085,6 +3433,9 @@
       <c r="E46" s="29" t="s">
         <v>105</v>
       </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
@@ -3139,8 +3490,8 @@
       <c r="C52" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="29" t="s">
-        <v>105</v>
+      <c r="E52" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3161,8 +3512,11 @@
       <c r="C54" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="29" t="s">
-        <v>105</v>
+      <c r="E54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3296,7 +3650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>143</v>
       </c>
@@ -3310,7 +3664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>138</v>
       </c>
@@ -3318,7 +3672,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>147</v>
       </c>
@@ -3329,7 +3683,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>149</v>
       </c>
@@ -3338,6 +3692,120 @@
       </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="33">
+        <v>42943</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
+        <v>170</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1978,13 +1978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过桩擦边</t>
-    <rPh sb="2" eb="3">
-      <t>cha bian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>round 4 to 教二</t>
     <rPh sb="11" eb="12">
       <t>jiao er</t>
@@ -2259,6 +2252,164 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. basenode 发负速度，左转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 过桩擦边</t>
+    <rPh sb="5" eb="6">
+      <t>cha bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 秋伟更新单向车道mission planner路径规划错误</t>
+    <rPh sb="3" eb="4">
+      <t>qiu we</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan xiang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ce dao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>gui h</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>cuo w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-28-13-09-35.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 徐志浩：twist替换arckerman后移动不是特别好看，其余正常</t>
+    <rPh sb="3" eb="4">
+      <t>xu zhi h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti huan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>te bie</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hao kan</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>qi yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-28-13-43-01.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天道路施工，去不了教二</t>
+    <rPh sb="0" eb="1">
+      <t>jin t</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi gong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qu bu l</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 定位问题</t>
+    <rPh sb="3" eb="4">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-28-14-56-13.bag</t>
+  </si>
+  <si>
+    <t>round 4 to 藏书馆</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 秋伟轨迹规划结算错误</t>
+    <rPh sb="3" eb="4">
+      <t>qiu wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie suan cuo w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 秋伟轨迹规划结算错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-28-16-05-14.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-28-15-54-13.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器进入盲区</t>
+    <rPh sb="0" eb="1">
+      <t>cuan gan q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mang qu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2805,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2883,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2954,7 +3105,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3227,8 +3378,8 @@
       <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>17</v>
+      <c r="E32" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3262,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3279,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3434,7 +3585,7 @@
         <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3516,7 +3667,7 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,74 +3889,175 @@
         <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
       <c r="C73" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" t="s">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>105</v>
       </c>
+      <c r="F74" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>165</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
         <v>166</v>
       </c>
-      <c r="C76" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="29" t="s">
+      <c r="D77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>169</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="33">
+        <v>42944</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -1346,43 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 回程路径被挡住之后，会出现两个极点的路径</t>
-    <rPh sb="3" eb="4">
-      <t>hui cheng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lu j</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dang z</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhi hou</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>chu xian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>liang ge</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ji dian</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>d</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>lu j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加模式9</t>
     <rPh sb="0" eb="1">
       <t>tian jia</t>
@@ -1494,31 +1457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 路径判断状态5，6，有时候会状态出错</t>
-    <rPh sb="3" eb="4">
-      <t>lu jin</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pan d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>you shi h</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>chu cuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更改了local和golbal的遍历顺序，添加了参数重置</t>
     <rPh sb="0" eb="1">
       <t>gen gai</t>
@@ -1595,64 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <rPh sb="3" eb="4">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>d</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>suan fa</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhuan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>da jiao du</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>qian ban duan</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>geng</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ping hua</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>hou ban duan</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>suan f</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>you</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>que xian</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>can sheng</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>fu</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shu du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-21-12-00-37.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1684,10 +1564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-21-14-23-10.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1747,10 +1623,6 @@
     <t>1. 世纪馆定位出错</t>
   </si>
   <si>
-    <t>2. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-21-15-35-12.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1931,43 +1803,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gps没有信号</t>
-    <rPh sb="3" eb="4">
-      <t>mei you</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xing hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-27-08-47-34.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017-07-27-09-30-18.bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rover_ui开箱延迟3-4秒，其他运行正常</t>
-    <rPh sb="8" eb="9">
-      <t>kai xiang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yan chi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>miao</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>qi t</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>yun x</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zheng c</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1985,58 +1825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更换新版rover_ui，到start点不给goal，重启除rover_ui之外的全部程序之后，不经操作反复给goal</t>
-    <rPh sb="0" eb="1">
-      <t>gen huan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin ban</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>bu gei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>chong qi</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>zhi wai</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>d</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>quan bu</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>cheng xu</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>zhi hou</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>bu jin guo</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>chao zuo</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>fan fu</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>gei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-27-13-32-50.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2057,75 +1845,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到start点不给goal，玉猛修改线程顺序问题依然存在</t>
-    <rPh sb="0" eb="1">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bu gei</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yi ran</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>chun z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-27-19-18-12.bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
-    <rPh sb="0" eb="1">
-      <t>chang shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qu xiao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ming ning</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ge shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>zhi jie</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yun x</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>guo c</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>guo da</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>you xie</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2157,37 +1877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 通过调节z加速度精度，解决超调问题，但是走起来有点不好看</t>
-    <rPh sb="3" eb="4">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tiao jie</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jia shu du</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jing du</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>dan shi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>qi lai</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>you dian</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>bu hao kan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-07-27-19-58-53.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2260,13 +1949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 过桩擦边</t>
-    <rPh sb="5" eb="6">
-      <t>cha bian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 秋伟更新单向车道mission planner路径规划错误</t>
     <rPh sb="3" eb="4">
       <t>qiu we</t>
@@ -2410,6 +2092,324 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>mang qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <rPh sb="7" eb="8">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>suan fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da jiao du</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qian ban duan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ping hua</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hou ban duan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>suan f</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>que xian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>can sheng</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 徐志浩： 路径判断状态5，6，有时候会状态出错</t>
+    <rPh sb="8" eb="9">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pan d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>you shi h</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>chu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 徐志浩：  回程路径被挡住之后，会出现两个极点的路径</t>
+    <rPh sb="9" eb="10">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lu j</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dang z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>liang ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ji dian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>d</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>lu j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 徐志浩：过桩擦边</t>
+    <rPh sb="9" eb="10">
+      <t>cha bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. gps没有信号</t>
+    <rPh sb="6" eb="7">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. rover_ui开箱延迟3-4秒，其他运行正常</t>
+    <rPh sb="11" eb="12">
+      <t>kai xiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yan chi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 更换新版rover_ui，到start点不给goal，重启除rover_ui之外的全部程序之后，不经操作反复给goal</t>
+    <rPh sb="3" eb="4">
+      <t>gen huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin ban</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>chong qi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhi wai</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>d</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>bu jin guo</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>chao zuo</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fan fu</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到start点不给goal，玉猛修改线程顺序问题依然存在</t>
+    <rPh sb="3" eb="4">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bu gei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi ran</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>chun z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 徐志浩：尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
+    <rPh sb="7" eb="8">
+      <t>chang shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ming ning</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>guo c</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>guo da</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>you xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 徐志浩：通过调节z加速度精度，解决超调问题，但是走起来有点不好看</t>
+    <rPh sb="7" eb="8">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jia shu du</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jing du</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>qi lai</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you dian</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bu hao kan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2958,8 +2958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3034,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3413,7 +3413,7 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,32 +3520,32 @@
         <v>42934</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="D42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="E42" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="D43" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -3565,48 +3565,48 @@
         <v>99</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3622,24 +3622,24 @@
         <v>42937</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
-        <v>118</v>
-      </c>
       <c r="E51" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>18</v>
@@ -3647,94 +3647,94 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>18</v>
@@ -3753,93 +3753,93 @@
         <v>42941</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
         <v>135</v>
       </c>
-      <c r="C62" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
       <c r="E62" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
@@ -3858,27 +3858,27 @@
         <v>42943</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>18</v>
@@ -3886,24 +3886,24 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>18</v>
@@ -3911,66 +3911,66 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>18</v>
@@ -3989,75 +3989,75 @@
         <v>42944</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="194">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1346,6 +1346,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 回程路径被挡住之后，会出现两个极点的路径</t>
+    <rPh sb="3" eb="4">
+      <t>hui cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lu j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dang z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>liang ge</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji dian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>d</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>lu j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>添加模式9</t>
     <rPh sb="0" eb="1">
       <t>tian jia</t>
@@ -1457,6 +1494,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3. 路径判断状态5，6，有时候会状态出错</t>
+    <rPh sb="3" eb="4">
+      <t>lu jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pan d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you shi h</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhuang t</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chu cuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>更改了local和golbal的遍历顺序，添加了参数重置</t>
     <rPh sb="0" eb="1">
       <t>gen gai</t>
@@ -1533,6 +1595,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <rPh sb="3" eb="4">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suan fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>da jiao du</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qian ban duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gen</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>geng</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ping hua</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou ban duan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suan f</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>que xian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>can sheng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shu du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-07-21-12-00-37.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1564,6 +1684,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-07-21-14-23-10.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1623,6 +1747,10 @@
     <t>1. 世纪馆定位出错</t>
   </si>
   <si>
+    <t>2. 新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-07-21-15-35-12.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1667,23 +1795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.到达start点不给goal</t>
-    <rPh sb="2" eb="3">
-      <t>dao d</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bu gei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.到达start点不给goal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 重启直接给start点</t>
     <rPh sb="3" eb="4">
       <t>chong qi</t>
@@ -1709,25 +1820,6 @@
   </si>
   <si>
     <t>2017-07-25-17-17-09.bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.更换硬盘，到达start点不给goal</t>
-    <rPh sb="2" eb="3">
-      <t>gen huan</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yin pan</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dao da</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bu gei</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1877,6 +1969,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2. 通过调节z加速度精度，解决超调问题，但是走起来有点不好看</t>
+    <rPh sb="3" eb="4">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao jie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia shu du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jing du</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qi lai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you dian</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu hao kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017-07-27-19-58-53.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1949,6 +2072,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 过桩擦边</t>
+    <rPh sb="5" eb="6">
+      <t>cha bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 秋伟更新单向车道mission planner路径规划错误</t>
     <rPh sb="3" eb="4">
       <t>qiu we</t>
@@ -1978,37 +2108,6 @@
   </si>
   <si>
     <t>2017-07-28-13-09-35.bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 徐志浩：twist替换arckerman后移动不是特别好看，其余正常</t>
-    <rPh sb="3" eb="4">
-      <t>xu zhi h</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti huan</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yi dong</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>bu shi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>te bie</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>hao kan</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>qi yu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>zheng c</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2096,141 +2195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <rPh sb="7" eb="8">
-      <t>xin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>d</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>suan fa</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>da jiao du</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>qian ban duan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>gen</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>geng</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ping hua</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>hou ban duan</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>suan f</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>you</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>que xian</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>can sheng</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>fu</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>shu du</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 徐志浩： 路径判断状态5，6，有时候会状态出错</t>
-    <rPh sb="8" eb="9">
-      <t>lu jin</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>pan d</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>you shi h</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>zhuang t</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>chu cuo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 徐志浩：  回程路径被挡住之后，会出现两个极点的路径</t>
-    <rPh sb="9" eb="10">
-      <t>hui cheng</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>lu j</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>dang z</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zhi hou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>chu xian</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>liang ge</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ji dian</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>d</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>lu j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 徐志浩：新改的算法转大角度前半段更好更平滑，后半段算法有缺陷，产生负速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 徐志浩：过桩擦边</t>
-    <rPh sb="9" eb="10">
-      <t>cha bian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. gps没有信号</t>
     <rPh sb="6" eb="7">
       <t>mei you</t>
@@ -2337,79 +2301,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 徐志浩：尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
-    <rPh sb="7" eb="8">
+    <t>负责人</t>
+    <rPh sb="0" eb="1">
+      <t>fu zhe ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐志浩</t>
+  </si>
+  <si>
+    <t>徐志浩</t>
+    <rPh sb="0" eb="1">
+      <t>xu zhi h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐志浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
+    <rPh sb="3" eb="4">
       <t>chang shi</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="5" eb="6">
       <t>qu xiao</t>
     </rPh>
+    <rPh sb="15" eb="16">
+      <t>ming ning</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>guo c</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>guo da</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>you xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. twist替换arckerman后移动不是特别好看，其余正常</t>
+    <rPh sb="8" eb="9">
+      <t>ti huan</t>
+    </rPh>
     <rPh sb="19" eb="20">
-      <t>ming ning</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ge shi</t>
+      <t>hou</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>bu shi</t>
     </rPh>
     <rPh sb="24" eb="25">
-      <t>zhi jie</t>
+      <t>te bie</t>
     </rPh>
     <rPh sb="26" eb="27">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>yun x</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>guo c</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>she zhi</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>guo da</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>you xie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 徐志浩：通过调节z加速度精度，解决超调问题，但是走起来有点不好看</t>
-    <rPh sb="7" eb="8">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tiao jie</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jia shu du</t>
+      <t>hao kan</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>qi yu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到达start点不给goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 到达start点不给goal</t>
+    <rPh sb="3" eb="4">
+      <t>dao d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 更换硬盘，到达start点不给goal</t>
+    <rPh sb="3" eb="4">
+      <t>gen huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin pan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dao da</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>jing du</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>dan shi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>qi lai</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>you dian</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>bu hao kan</t>
+      <t>dian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu gei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2956,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2971,7 +2989,7 @@
     <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2990,8 +3008,11 @@
       <c r="F1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -3009,7 +3030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
@@ -3023,7 +3044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
@@ -3034,10 +3055,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="19"/>
       <c r="C5" t="s">
@@ -3048,7 +3069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8" t="s">
@@ -3080,7 +3101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8" t="s">
@@ -3094,7 +3115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="8" t="s">
@@ -3105,10 +3126,10 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -3116,7 +3137,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="11" t="s">
         <v>87</v>
       </c>
@@ -3147,7 +3168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
         <v>88</v>
       </c>
@@ -3161,7 +3182,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -3169,7 +3190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -3180,7 +3201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -3382,7 +3403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -3399,7 +3420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>58</v>
       </c>
@@ -3413,10 +3434,10 @@
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>63</v>
       </c>
@@ -3430,10 +3451,10 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +3468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -3455,7 +3476,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="22">
         <v>42930</v>
       </c>
@@ -3475,7 +3496,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="23" t="s">
         <v>72</v>
@@ -3493,7 +3514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
         <v>75</v>
@@ -3507,7 +3528,7 @@
       </c>
       <c r="F40" s="27"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3515,41 +3536,41 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>42934</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>104</v>
-      </c>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
@@ -3557,7 +3578,7 @@
       <c r="E44" s="32"/>
       <c r="F44" s="30"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="18">
         <v>42936</v>
       </c>
@@ -3565,51 +3586,57 @@
         <v>99</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="G47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -3617,130 +3644,139 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="33">
         <v>42937</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="G53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>122</v>
-      </c>
       <c r="E56" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -3748,104 +3784,104 @@
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="33">
         <v>42941</v>
       </c>
       <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="C61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
       <c r="E64" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -3853,130 +3889,139 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="33">
         <v>42943</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E71" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="G72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E76" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -3984,80 +4029,83 @@
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="33">
         <v>42944</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/Downloads/working_notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/OneDrive/working_nodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1841,10 +1841,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>round 5 to 教二</t>
     <rPh sb="11" eb="12">
       <t>jiao er</t>
@@ -2428,6 +2424,143 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>bu gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07-31-17-33-58.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 给到藏书楼必须去教二</t>
+    <rPh sb="3" eb="4">
+      <t>gei dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chang shu lou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jiao er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉猛</t>
+    <rPh sb="0" eb="1">
+      <t>yu meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-01-10-29-34.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 正常，去藏书楼能够路口借到，加入防止逆行功能</t>
+    <rPh sb="3" eb="4">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chang shu lou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>neng g</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu kou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie dao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>fang zhi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ni xing</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>gong n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-01-18-22-52.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 藏书楼</t>
+    <rPh sb="11" eb="12">
+      <t>chang shu l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-02-12-00-12.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修改代码之后运行发布x=0的数据</t>
+    <rPh sb="3" eb="4">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 藏书楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修复修改代码之后运行发布x=0的数据</t>
+    <rPh sb="3" eb="4">
+      <t>xiu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-02-14-49-08.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 3 to 人文楼</t>
+    <rPh sb="11" eb="12">
+      <t>ren wen lou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2652,51 +2785,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2974,519 +3166,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="1" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
-        <v>185</v>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="19"/>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="12" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>42929</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>42929</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="22">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
         <v>42930</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E38" s="26" t="s">
@@ -3497,175 +3690,175 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="28" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
         <v>42934</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="23" t="s">
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="30"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="18">
+      <c r="A45" s="21">
         <v>42936</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="33">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="34">
         <v>42937</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -3673,75 +3866,75 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+      <c r="G53" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E54" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
-        <v>166</v>
+      <c r="F54" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G55" t="s">
-        <v>186</v>
+      <c r="G55" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E56" s="29" t="s">
-        <v>105</v>
+      <c r="E56" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E57" s="29" t="s">
@@ -3749,27 +3942,27 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G58" t="s">
-        <v>186</v>
+      <c r="G58" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -3777,338 +3970,459 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="33">
+      <c r="A61" s="34">
         <v>42941</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="29" t="s">
-        <v>105</v>
+      <c r="E61" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C62" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E62" s="29" t="s">
-        <v>105</v>
+      <c r="E62" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="29" t="s">
-        <v>105</v>
+      <c r="E63" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="29" t="s">
-        <v>105</v>
+      <c r="E64" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="33">
+      <c r="A70" s="34">
         <v>42943</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" t="s">
-        <v>149</v>
+      <c r="C70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" t="s">
-        <v>153</v>
+      <c r="C72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F72" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" t="s">
-        <v>186</v>
+      <c r="F72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>167</v>
+      <c r="C73" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E74" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="D75" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="34">
+        <v>42944</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D76" t="s">
-        <v>156</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="33">
-        <v>42944</v>
-      </c>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="D81" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>171</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G81" t="s">
-        <v>186</v>
+      <c r="G81" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>151</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D82" t="s">
-        <v>174</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" t="s">
-        <v>177</v>
-      </c>
-      <c r="D84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>105</v>
+      <c r="E84" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="34">
+        <v>42947</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="34">
+        <v>42948</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="34">
+        <v>42948</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="34">
+        <v>42949</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="34">
+        <v>42949</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="34">
+        <v>42949</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/OneDrive/working_nodes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howe/Downloads/working_notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2561,6 +2561,51 @@
     <t>round 3 to 人文楼</t>
     <rPh sb="11" eb="12">
       <t>ren wen lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 运行正常，秋伟引导点需要模糊下</t>
+    <rPh sb="3" eb="4">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiu wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin dao dian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mo hu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-02-18-07-25.bag 回程</t>
+    <rPh sb="24" eb="25">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-02-17-50-49.bag 去程</t>
+    <rPh sb="24" eb="25">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cheng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3166,10 +3211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4420,6 +4465,23 @@
       <c r="B93" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="C93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="29" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1434,9 +1434,6 @@
     <t>04-rslidar-renda.bag</t>
   </si>
   <si>
-    <t>待解决</t>
-  </si>
-  <si>
     <t>下午测试自主教二往返。</t>
   </si>
   <si>
@@ -2297,27 +2294,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <rPh sb="0" eb="1">
-      <t>fu zhe ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐志浩</t>
-  </si>
-  <si>
-    <t>徐志浩</t>
-    <rPh sb="0" eb="1">
-      <t>xu zhi h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐志浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 尝试取消arckman 命令格式，直接适用cmd，运行过程z轴加速度参数设置过大，有些超调</t>
     <rPh sb="3" eb="4">
       <t>chang shi</t>
@@ -2458,13 +2434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玉猛</t>
-    <rPh sb="0" eb="1">
-      <t>yu meng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-08-01-10-29-34.bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2607,6 +2576,183 @@
     <rPh sb="25" eb="26">
       <t>cheng</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 人文楼</t>
+    <rPh sb="11" eb="12">
+      <t>ren wen lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-03-18-34-09.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-08-17-45-53.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急程度</t>
+    <rPh sb="0" eb="1">
+      <t>jin ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chen du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 人文楼</t>
+    <rPh sb="11" eb="12">
+      <t>ren wen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 2 to 人文楼</t>
+    <rPh sb="11" eb="12">
+      <t>ren wen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. x轴走折线，模式9等待运用</t>
+    <rPh sb="4" eb="5">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>den dai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yun yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 录制16线激光雷达 pointcloud</t>
+    <rPh sb="3" eb="4">
+      <t>lu zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji guang lei da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 完成测试一键录包+初步改进x轴无法走直线，</t>
+    <rPh sb="3" eb="4">
+      <t>wan c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lu zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu bu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhi xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <rPh sb="0" eb="1">
+      <t>zhu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期问题</t>
+    <rPh sb="0" eb="1">
+      <t>chang qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ewn ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期问题</t>
+    <rPh sb="0" eb="1">
+      <t>zhong qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急问题</t>
+    <rPh sb="0" eb="1">
+      <t>jin ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <rPh sb="0" eb="1">
+      <t>fu zhe r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-08-08-14-28-03_0.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2693,14 +2839,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2830,7 +2976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2916,9 +3062,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2928,11 +3071,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3211,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,10 +3373,11 @@
     <col min="4" max="4" width="33.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3247,10 +3397,17 @@
         <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3267,8 +3424,12 @@
       <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
@@ -3281,8 +3442,12 @@
       <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
@@ -3293,10 +3458,17 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="1" t="s">
@@ -3306,8 +3478,15 @@
       <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -3324,8 +3503,10 @@
       <c r="F6" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="12" t="s">
@@ -3339,7 +3520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="12" t="s">
@@ -3353,7 +3534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="12" t="s">
@@ -3364,10 +3545,10 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -3375,7 +3556,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -3392,7 +3573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="20" t="s">
         <v>87</v>
       </c>
@@ -3406,7 +3587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="20" t="s">
         <v>88</v>
       </c>
@@ -3420,15 +3601,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3438,8 +3622,11 @@
       <c r="E15" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3641,7 +3828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3658,7 +3845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3672,10 +3859,10 @@
         <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
@@ -3689,10 +3876,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
@@ -3706,7 +3893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3714,7 +3901,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>42930</v>
       </c>
@@ -3734,7 +3921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="24" t="s">
         <v>72</v>
@@ -3752,7 +3939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
         <v>75</v>
@@ -3766,7 +3953,7 @@
       </c>
       <c r="F40" s="27"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3774,7 +3961,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:7" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>42934</v>
       </c>
@@ -3787,36 +3974,36 @@
       <c r="D42" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>105</v>
+      <c r="E42" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="29" t="s">
-        <v>105</v>
+      <c r="E43" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>42936</v>
       </c>
@@ -3827,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>18</v>
@@ -3835,46 +4022,40 @@
       <c r="F45" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -3882,139 +4063,130 @@
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="33">
         <v>42937</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E52" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E53" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -4022,104 +4194,104 @@
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="34">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="33">
         <v>42941</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="E65" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C64" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E66" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -4127,139 +4299,130 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="34">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="33">
         <v>42943</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E74" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E78" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -4267,86 +4430,83 @@
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="34">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="33">
         <v>42944</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="E81" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E84" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4354,27 +4514,24 @@
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="34">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="33">
         <v>42947</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -4382,109 +4539,181 @@
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="34">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="33">
         <v>42948</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="33">
+        <v>42948</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="34">
-        <v>42948</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E89" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
-      <c r="E90" s="33"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="34">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="33">
         <v>42949</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="33">
+        <v>42949</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="33">
+        <v>42949</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="34">
-        <v>42949</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="E94" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="33">
+        <v>42950</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E92" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="34">
-        <v>42949</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="E96" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="33">
+        <v>42955</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="33">
+        <v>42955</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>105</v>
+      <c r="E99" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/testing_notes_Howe_QW.xlsx
+++ b/testing_notes_Howe_QW.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="240">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1253,16 +1253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已解决</t>
-    <rPh sb="0" eb="1">
-      <t>yi j</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>jie jue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改map server</t>
     <rPh sb="0" eb="1">
       <t>xiu gai</t>
@@ -2753,6 +2743,125 @@
   </si>
   <si>
     <t>中期问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round 1 to 人文楼</t>
+  </si>
+  <si>
+    <t>1、录包启动后，未执行录包任务，无包。</t>
+  </si>
+  <si>
+    <t>无包</t>
+  </si>
+  <si>
+    <t>2、第一个左转后车骑上路肩，</t>
+  </si>
+  <si>
+    <t>3、大遥控器失灵，无法急停；</t>
+  </si>
+  <si>
+    <t>4、通过地桩后再次骑上路肩；</t>
+  </si>
+  <si>
+    <t>5、人文楼返回京东派时车直行撞上路肩，停车后两个遥控器失灵；</t>
+  </si>
+  <si>
+    <t>6、多次断电重启后车辆行进，不避让前方行人，遥控器急停失灵冲上人行道</t>
+  </si>
+  <si>
+    <t>7、回程第一个弯道车前行人未避让</t>
+  </si>
+  <si>
+    <t>round 2 to 人文楼</t>
+  </si>
+  <si>
+    <t>1、出发后几米开上路肩，急停；</t>
+  </si>
+  <si>
+    <t>2017-08-09-17-15-30_0.bag</t>
+  </si>
+  <si>
+    <t>2、第一个左转弯路口，西向东方向大解放车直行未停车避让，人工干预</t>
+  </si>
+  <si>
+    <t>3、转弯过后右轮蹭上路肩</t>
+  </si>
+  <si>
+    <t>控制动作未响应</t>
+    <rPh sb="0" eb="1">
+      <t>kong zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位问题+左右转角不一样</t>
+    <rPh sb="0" eb="1">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zuo you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhuan jiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu yi y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件问题</t>
+    <rPh sb="0" eb="1">
+      <t>ying jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲避行人，正确动作</t>
+    <rPh sb="0" eb="1">
+      <t>duo bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng que</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件问题，传感器看不到</t>
+    <rPh sb="0" eb="1">
+      <t>yin jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan gan q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kan bu dao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2976,7 +3085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3083,6 +3192,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3360,10 +3473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3397,13 +3510,13 @@
         <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J1" s="35"/>
     </row>
@@ -3419,13 +3532,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J2" s="35"/>
     </row>
@@ -3443,7 +3556,7 @@
         <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J3" s="34"/>
     </row>
@@ -3458,13 +3571,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J4" s="22"/>
     </row>
@@ -3479,10 +3592,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J5" s="8"/>
     </row>
@@ -3545,7 +3658,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -3555,6 +3668,8 @@
       <c r="D10" s="18"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -3609,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -3623,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -3634,15 +3749,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="19"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3656,10 +3773,10 @@
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3670,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3678,7 +3795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
@@ -3689,7 +3806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -3700,7 +3817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
@@ -3711,7 +3828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>36</v>
       </c>
@@ -3722,10 +3839,10 @@
         <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
@@ -3736,15 +3853,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G26" s="19"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>42929</v>
       </c>
@@ -3761,10 +3880,10 @@
         <v>43</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
@@ -3775,7 +3894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -3789,7 +3908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -3806,7 +3925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3817,10 +3936,10 @@
         <v>18</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
@@ -3828,7 +3947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3842,10 +3961,10 @@
         <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3859,10 +3978,10 @@
         <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
@@ -3876,10 +3995,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
@@ -3890,18 +4009,20 @@
         <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G37" s="19"/>
+      <c r="H37" s="37"/>
+    </row>
+    <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>42930</v>
       </c>
@@ -3918,10 +4039,10 @@
         <v>18</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
       <c r="B39" s="24" t="s">
         <v>72</v>
@@ -3936,10 +4057,10 @@
         <v>18</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
         <v>75</v>
@@ -3953,759 +4074,984 @@
       </c>
       <c r="F40" s="27"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="G41" s="19"/>
+      <c r="H41" s="37"/>
+    </row>
+    <row r="42" spans="1:8" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>42934</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25"/>
       <c r="B43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>106</v>
-      </c>
       <c r="D43" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="31"/>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="32"/>
       <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
         <v>42936</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="D45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G50" s="19"/>
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="33">
         <v>42937</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E52" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E53" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="19"/>
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="33">
         <v>42941</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+      <c r="E65" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E66" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E68" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="19"/>
+      <c r="H69" s="37"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="33">
         <v>42943</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E74" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C73" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E74" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E75" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C78" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E78" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="19"/>
+      <c r="H79" s="37"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="33">
         <v>42944</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="E81" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E84" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="19"/>
+      <c r="H85" s="37"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="33">
         <v>42947</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E86" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="19"/>
+      <c r="H87" s="37"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="33">
         <v>42948</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="33">
         <v>42948</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E89" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
       <c r="E90" s="32"/>
       <c r="F90" s="19"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="19"/>
+      <c r="H90" s="37"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="33">
         <v>42949</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E91" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="33">
         <v>42949</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E92" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="33">
         <v>42949</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D94" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D94" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E94" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="19"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="19"/>
+      <c r="H95" s="37"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33">
         <v>42950</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E96" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="19"/>
+      <c r="H97" s="37"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="33">
         <v>42955</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="33">
         <v>42955</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E99" s="26" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="37"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="36">
+        <v>42956</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="25"/>
+      <c r="E109" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="25"/>
+      <c r="E110" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="37"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0"/>
